--- a/Word/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/Word/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,110 @@
   </si>
   <si>
     <t>为实体类加注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jira的相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对jira进行安装并了解相关操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装idea了解相关配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习HTML标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解css，JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善相关文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解js/jQuery框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始对模块实体测试类及配置进行完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步熟悉SSM框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,9 +1180,11 @@
         <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1087,7 +1193,9 @@
       <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1108,7 +1216,9 @@
       <c r="D23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1117,8 +1227,15 @@
       <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1127,8 +1244,15 @@
       <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1137,8 +1261,15 @@
       <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -1147,8 +1278,15 @@
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -1157,8 +1295,15 @@
       <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1167,8 +1312,15 @@
       <c r="B29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1177,8 +1329,15 @@
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1187,11 +1346,32 @@
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Word/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/Word/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,22 @@
   </si>
   <si>
     <t>下一步熟悉SSM框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service层接口及其实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao层测试类的完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1371,6 +1387,22 @@
       </c>
       <c r="E36" s="6" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
